--- a/language resources/testResults.xlsx
+++ b/language resources/testResults.xlsx
@@ -593,13 +593,14 @@
   <dimension ref="A1:D105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="66.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
